--- a/public/files/form_kenaikan_pangkat.xlsx
+++ b/public/files/form_kenaikan_pangkat.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25831"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25928"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\xampp7\htdocs\gis-demo\impor\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\xampp7\htdocs\dashboardpeg\public\files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{581A1619-7AF5-468A-85CB-90E21DC6D745}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E59EB21D-1AE8-4C40-BAFF-DA08BFFB77FF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{0894E8AA-9437-44DC-8EB0-B3FAFDFB56C7}"/>
+    <workbookView xWindow="3210" yWindow="4215" windowWidth="21600" windowHeight="11385" xr2:uid="{0894E8AA-9437-44DC-8EB0-B3FAFDFB56C7}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,20 +20,12 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="56">
   <si>
     <t>NIP</t>
   </si>
@@ -168,9 +160,6 @@
   </si>
   <si>
     <t>PANGKAT</t>
-  </si>
-  <si>
-    <t>CURDATE</t>
   </si>
   <si>
     <t>Struktural</t>
@@ -560,7 +549,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme 2013 - 2022" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -568,17 +557,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BB452FE7-9D82-4790-AD13-B130B3E7F20A}">
-  <dimension ref="A1:J13"/>
+  <dimension ref="A1:I13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E20" sqref="E20"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="J1" sqref="J1:J1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="4.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="31.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="21" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="31.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="21" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="61" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="14.42578125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="29.85546875" bestFit="1" customWidth="1"/>
@@ -586,15 +576,15 @@
     <col min="9" max="9" width="18.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>43</v>
       </c>
       <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
         <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>0</v>
       </c>
       <c r="D1" t="s">
         <v>44</v>
@@ -614,19 +604,16 @@
       <c r="I1" t="s">
         <v>6</v>
       </c>
-      <c r="J1" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>1</v>
       </c>
       <c r="B2" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" s="2" t="s">
         <v>7</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>8</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>9</v>
@@ -635,24 +622,24 @@
         <v>10</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>2</v>
       </c>
       <c r="B3" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C3" s="2" t="s">
         <v>11</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>12</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>9</v>
@@ -661,27 +648,27 @@
         <v>13</v>
       </c>
       <c r="F3" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="G3" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="G3" s="2" t="s">
-        <v>48</v>
-      </c>
       <c r="H3" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>3</v>
       </c>
       <c r="B4" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C4" s="2" t="s">
         <v>14</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>15</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>16</v>
@@ -690,24 +677,24 @@
         <v>17</v>
       </c>
       <c r="F4" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="G4" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="G4" s="2" t="s">
-        <v>49</v>
-      </c>
       <c r="H4" s="2" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>4</v>
       </c>
       <c r="B5" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C5" s="2" t="s">
         <v>18</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>19</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>20</v>
@@ -716,24 +703,24 @@
         <v>21</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>5</v>
       </c>
       <c r="B6" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C6" s="2" t="s">
         <v>22</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>23</v>
       </c>
       <c r="D6" s="2" t="s">
         <v>24</v>
@@ -742,24 +729,24 @@
         <v>25</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>6</v>
       </c>
       <c r="B7" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C7" s="2" t="s">
         <v>26</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>27</v>
       </c>
       <c r="D7" s="2" t="s">
         <v>24</v>
@@ -768,24 +755,24 @@
         <v>25</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>7</v>
       </c>
       <c r="B8" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C8" s="2" t="s">
         <v>28</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>29</v>
       </c>
       <c r="D8" s="2" t="s">
         <v>24</v>
@@ -794,24 +781,24 @@
         <v>25</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>8</v>
       </c>
       <c r="B9" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="C9" s="2" t="s">
         <v>30</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>31</v>
       </c>
       <c r="D9" s="2" t="s">
         <v>32</v>
@@ -820,24 +807,24 @@
         <v>33</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>9</v>
       </c>
       <c r="B10" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="C10" s="2" t="s">
         <v>34</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>35</v>
       </c>
       <c r="D10" s="2" t="s">
         <v>32</v>
@@ -846,24 +833,24 @@
         <v>33</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>10</v>
       </c>
       <c r="B11" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="C11" s="2" t="s">
         <v>36</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>37</v>
       </c>
       <c r="D11" s="2" t="s">
         <v>38</v>
@@ -872,24 +859,24 @@
         <v>33</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>11</v>
       </c>
       <c r="B12" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="C12" s="2" t="s">
         <v>39</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>40</v>
       </c>
       <c r="D12" s="2" t="s">
         <v>32</v>
@@ -898,24 +885,24 @@
         <v>33</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="H12" s="2" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>12</v>
       </c>
       <c r="B13" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="C13" s="2" t="s">
         <v>41</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>42</v>
       </c>
       <c r="D13" s="2" t="s">
         <v>9</v>
@@ -924,13 +911,13 @@
         <v>33</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="H13" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
   </sheetData>
